--- a/landline/state code.xlsx
+++ b/landline/state code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34820" yWindow="5080" windowWidth="25600" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>State</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>2010 Population</t>
+  </si>
+  <si>
+    <t>Jobs per MM Cap</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -256,7 +262,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -279,18 +285,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="48">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -302,6 +335,19 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -312,6 +358,19 @@
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E52"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -659,11 +718,17 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -673,12 +738,19 @@
       <c r="C2" s="3">
         <v>420</v>
       </c>
-      <c r="E2" t="str">
-        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;"],"</f>
-        <v>"01":["Alabama",420],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2">
+        <v>4779736</v>
+      </c>
+      <c r="E2" s="6">
+        <f>C2/D2*1000000</f>
+        <v>87.870961910867052</v>
+      </c>
+      <c r="G2" t="str">
+        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;","&amp;D2&amp;","&amp;ROUND(E2,0)&amp;"],"</f>
+        <v>"01":["Alabama",420,4779736,88],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -688,12 +760,19 @@
       <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E52" si="0">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;"],"</f>
-        <v>"02":["Alaska",50],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3">
+        <v>710231</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E52" si="0">C3/D3*1000000</f>
+        <v>70.399630542738919</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G52" si="1">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;","&amp;D3&amp;","&amp;ROUND(E3,0)&amp;"],"</f>
+        <v>"02":["Alaska",50,710231,70],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>4</v>
       </c>
@@ -703,12 +782,19 @@
       <c r="C4" s="3">
         <v>8558</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>"04":["Arizona",8558],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4">
+        <v>6392017</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>1338.8575155541671</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>"04":["Arizona",8558,6392017,1339],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
@@ -718,12 +804,19 @@
       <c r="C5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>"05":["Arkansas",400],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5">
+        <v>2915918</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>137.17806879342973</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>"05":["Arkansas",400,2915918,137],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
@@ -733,12 +826,19 @@
       <c r="C6" s="3">
         <v>47223</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>"06":["California",47223],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6">
+        <v>37253956</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>1267.5969231294523</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>"06":["California",47223,37253956,1268],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>8</v>
       </c>
@@ -748,12 +848,19 @@
       <c r="C7" s="3">
         <v>3600</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>"08":["Colorado",3600],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7">
+        <v>5029196</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>715.82018278866042</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>"08":["Colorado",3600,5029196,716],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>9</v>
       </c>
@@ -763,12 +870,19 @@
       <c r="C8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>"09":["Connecticut",1100],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8">
+        <v>3574097</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>307.77004653203312</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>"09":["Connecticut",1100,3574097,308],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>10</v>
       </c>
@@ -778,12 +892,19 @@
       <c r="C9" s="3">
         <v>510</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>"10":["Delaware",510],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9">
+        <v>897934</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>567.97047444466966</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>"10":["Delaware",510,897934,568],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>11</v>
       </c>
@@ -793,12 +914,19 @@
       <c r="C10" s="3">
         <v>810</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>"11":["District of Columbia",810],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10">
+        <v>601723</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>1346.1343508557925</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>"11":["District of Columbia",810,601723,1346],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>12</v>
       </c>
@@ -808,12 +936,19 @@
       <c r="C11" s="3">
         <v>4000</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>"12":["Florida",4000],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11">
+        <v>18801310</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>212.75113276681253</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>"12":["Florida",4000,18801310,213],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>13</v>
       </c>
@@ -823,12 +958,19 @@
       <c r="C12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>"13":["Georgia",2600],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12">
+        <v>9687653</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>268.38285805653857</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>"13":["Georgia",2600,9687653,268],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>15</v>
       </c>
@@ -838,12 +980,19 @@
       <c r="C13" s="3">
         <v>2600</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>"15":["Hawaii",2600],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13">
+        <v>1360301</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>1911.3416809956032</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>"15":["Hawaii",2600,1360301,1911],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>16</v>
       </c>
@@ -853,12 +1002,19 @@
       <c r="C14" s="3">
         <v>540</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>"16":["Idaho",540],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="D14">
+        <v>1567582</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>344.47958703276771</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>"16":["Idaho",540,1567582,344],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>17</v>
       </c>
@@ -868,12 +1024,19 @@
       <c r="C15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>"17":["Illinois",2100],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="D15">
+        <v>12830632</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>163.67081528018261</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>"17":["Illinois",2100,12830632,164],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>18</v>
       </c>
@@ -883,12 +1046,19 @@
       <c r="C16" s="3">
         <v>1500</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>"18":["Indiana",1500],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16">
+        <v>6483802</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>231.34574436418632</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>"18":["Indiana",1500,6483802,231],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>19</v>
       </c>
@@ -898,12 +1068,19 @@
       <c r="C17" s="3">
         <v>680</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>"19":["Iowa",680],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="D17">
+        <v>3046355</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>223.21758298031583</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>"19":["Iowa",680,3046355,223],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>20</v>
       </c>
@@ -913,12 +1090,19 @@
       <c r="C18" s="3">
         <v>530</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>"20":["Kansas",530],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18">
+        <v>2853118</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>185.76168248211255</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>"20":["Kansas",530,2853118,186],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>21</v>
       </c>
@@ -928,12 +1112,19 @@
       <c r="C19" s="3">
         <v>640</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>"21":["Kentucky",640],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19">
+        <v>4339367</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>147.48694913336439</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>"21":["Kentucky",640,4339367,147],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>22</v>
       </c>
@@ -943,12 +1134,19 @@
       <c r="C20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>"22":["Louisiana",1400],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20">
+        <v>4533372</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>308.82089535118672</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>"22":["Louisiana",1400,4533372,309],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>23</v>
       </c>
@@ -958,12 +1156,19 @@
       <c r="C21" s="3">
         <v>790</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>"23":["Maine",790],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21">
+        <v>1328361</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>594.71785154788495</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>"23":["Maine",790,1328361,595],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>24</v>
       </c>
@@ -973,12 +1178,19 @@
       <c r="C22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>"24":["Maryland",2000],</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22">
+        <v>5773552</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>346.40720305281741</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>"24":["Maryland",2000,5773552,346],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>25</v>
       </c>
@@ -988,12 +1200,19 @@
       <c r="C23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>"25":["Massachusetts",6400],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23">
+        <v>6547629</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>977.45305972589472</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>"25":["Massachusetts",6400,6547629,977],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>26</v>
       </c>
@@ -1003,12 +1222,19 @@
       <c r="C24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>"26":["Michigan",2700],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24">
+        <v>9883640</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>273.17870743976914</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>"26":["Michigan",2700,9883640,273],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1018,12 +1244,19 @@
       <c r="C25" s="3">
         <v>864</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>"27":["Minnesota",864],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25">
+        <v>5303925</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>162.89823102702243</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>"27":["Minnesota",864,5303925,163],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>28</v>
       </c>
@@ -1033,12 +1266,19 @@
       <c r="C26" s="3">
         <v>240</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>"28":["Mississippi",240],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26">
+        <v>2967297</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>80.881691317047128</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>"28":["Mississippi",240,2967297,81],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1048,12 +1288,19 @@
       <c r="C27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>"29":["Missouri",2800],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27">
+        <v>5988927</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>467.52949234478899</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>"29":["Missouri",2800,5988927,468],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>30</v>
       </c>
@@ -1063,12 +1310,19 @@
       <c r="C28" s="3">
         <v>540</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>"30":["Montana",540],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28">
+        <v>989415</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>545.77705007504437</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>"30":["Montana",540,989415,546],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>31</v>
       </c>
@@ -1078,12 +1332,19 @@
       <c r="C29" s="3">
         <v>280</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>"31":["Nebraska",280],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29">
+        <v>1826341</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>153.31200471324905</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>"31":["Nebraska",280,1826341,153],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>32</v>
       </c>
@@ -1093,12 +1354,19 @@
       <c r="C30" s="4">
         <v>2400</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>"32":["Nevada",2400],</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30">
+        <v>2700551</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>888.70752672325011</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>"32":["Nevada",2400,2700551,889],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1108,12 +1376,19 @@
       <c r="C31" s="3">
         <v>860</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>"33":["New Hampshire",860],</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31">
+        <v>1316470</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>653.26213282490289</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>"33":["New Hampshire",860,1316470,653],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>34</v>
       </c>
@@ -1123,12 +1398,19 @@
       <c r="C32" s="3">
         <v>6500</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>"34":["New Jersey",6500],</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32">
+        <v>8791894</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>739.31737575544014</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>"34":["New Jersey",6500,8791894,739],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1138,12 +1420,19 @@
       <c r="C33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>"35":["New Mexico",1900],</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="D33">
+        <v>2059179</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>922.69783248566534</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>"35":["New Mexico",1900,2059179,923],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>36</v>
       </c>
@@ -1153,12 +1442,19 @@
       <c r="C34" s="3">
         <v>5000</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>"36":["New York",5000],</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34">
+        <v>19378102</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>258.02320578145373</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>"36":["New York",5000,19378102,258],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>37</v>
       </c>
@@ -1168,12 +1464,19 @@
       <c r="C35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>"37":["North Carolina",3100],</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35">
+        <v>9535483</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>325.10151819262853</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>"37":["North Carolina",3100,9535483,325],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>38</v>
       </c>
@@ -1183,12 +1486,19 @@
       <c r="C36" s="3">
         <v>230</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>"38":["North Dakota",230],</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D36">
+        <v>672591</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>341.96116213270773</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>"38":["North Dakota",230,672591,342],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>39</v>
       </c>
@@ -1198,12 +1508,19 @@
       <c r="C37" s="3">
         <v>3800</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>"39":["Ohio",3800],</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37">
+        <v>11536504</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>329.389215311675</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>"39":["Ohio",3800,11536504,329],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>40</v>
       </c>
@@ -1213,12 +1530,19 @@
       <c r="C38" s="3">
         <v>630</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>"40":["Oklahoma",630],</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="D38">
+        <v>3751351</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>167.93949699721514</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>"40":["Oklahoma",630,3751351,168],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>41</v>
       </c>
@@ -1228,12 +1552,19 @@
       <c r="C39" s="3">
         <v>2700</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>"41":["Oregon",2700],</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="D39">
+        <v>3831074</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>704.76320739301832</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>"41":["Oregon",2700,3831074,705],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>42</v>
       </c>
@@ -1243,12 +1574,19 @@
       <c r="C40" s="3">
         <v>2900</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>"42":["Pennsylvania",2900],</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="D40">
+        <v>12702379</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>228.30369019850534</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>"42":["Pennsylvania",2900,12702379,228],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1258,12 +1596,19 @@
       <c r="C41" s="3">
         <v>340</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>"44":["Rhode Island",340],</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="D41">
+        <v>1052567</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>323.01981726578924</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>"44":["Rhode Island",340,1052567,323],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1273,12 +1618,19 @@
       <c r="C42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>"45":["South Carolina",1000],</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="D42">
+        <v>4625364</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>216.19920075479465</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>"45":["South Carolina",1000,4625364,216],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>46</v>
       </c>
@@ -1288,12 +1640,19 @@
       <c r="C43" s="3">
         <v>290</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>"46":["South Dakota",290],</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="D43">
+        <v>814180</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>356.18659264536097</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>"46":["South Dakota",290,814180,356],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>47</v>
       </c>
@@ -1303,12 +1662,19 @@
       <c r="C44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>"47":["Tennessee",2800],</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44">
+        <v>6346105</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>441.2155172345872</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>"47":["Tennessee",2800,6346105,441],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>48</v>
       </c>
@@ -1318,12 +1684,19 @@
       <c r="C45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>"48":["Texas",4100],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="D45">
+        <v>25145561</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>163.05064738861861</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>"48":["Texas",4100,25145561,163],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>49</v>
       </c>
@@ -1333,12 +1706,19 @@
       <c r="C46" s="5">
         <v>910</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>"49":["Utah",910],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="D46">
+        <v>2763885</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>329.24669441745948</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>"49":["Utah",910,2763885,329],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>50</v>
       </c>
@@ -1348,12 +1728,19 @@
       <c r="C47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>"50":["Vermont",1300],</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="D47">
+        <v>625741</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>2077.53687228422</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>"50":["Vermont",1300,625741,2078],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>51</v>
       </c>
@@ -1363,12 +1750,19 @@
       <c r="C48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>"51":["Virginia",1900],</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="D48">
+        <v>8001024</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>237.46960389070199</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>"51":["Virginia",1900,8001024,237],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>53</v>
       </c>
@@ -1378,12 +1772,19 @@
       <c r="C49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>"53":["Washington",2000],</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="D49">
+        <v>6724540</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>297.41811335793972</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>"53":["Washington",2000,6724540,297],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>54</v>
       </c>
@@ -1393,12 +1794,19 @@
       <c r="C50" s="3">
         <v>370</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>"54":["West Virginia",370],</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="D50">
+        <v>1852994</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>199.67684730765455</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>"54":["West Virginia",370,1852994,200],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>55</v>
       </c>
@@ -1408,12 +1816,19 @@
       <c r="C51" s="3">
         <v>1800</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>"55":["Wisconsin",1800],</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51">
+        <v>5686986</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>316.51212083166723</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>"55":["Wisconsin",1800,5686986,317],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>56</v>
       </c>
@@ -1423,9 +1838,16 @@
       <c r="C52" s="3">
         <v>340</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>"56":["Wyoming",340],</v>
+      <c r="D52">
+        <v>563626</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>603.23689822683832</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>"56":["Wyoming",340,563626,603],</v>
       </c>
     </row>
   </sheetData>

--- a/landline/state code.xlsx
+++ b/landline/state code.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>State</t>
   </si>
@@ -262,9 +262,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -323,7 +341,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="66">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -348,6 +366,15 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -371,6 +398,15 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,15 +736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -727,8 +763,14 @@
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -749,8 +791,16 @@
         <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;","&amp;D2&amp;","&amp;ROUND(E2,0)&amp;"],"</f>
         <v>"01":["Alabama",420,4779736,88],</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="str">
+        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;","&amp;D2&amp;"],"</f>
+        <v>"01":["Alabama",420,4779736],</v>
+      </c>
+      <c r="M2" t="str">
+        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;"],"</f>
+        <v>"01":["Alabama",420],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -771,8 +821,16 @@
         <f t="shared" ref="G3:G52" si="1">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;","&amp;D3&amp;","&amp;ROUND(E3,0)&amp;"],"</f>
         <v>"02":["Alaska",50,710231,70],</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J52" si="2">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;","&amp;D3&amp;"],"</f>
+        <v>"02":["Alaska",50,710231],</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M52" si="3">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;"],"</f>
+        <v>"02":["Alaska",50],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>4</v>
       </c>
@@ -793,8 +851,16 @@
         <f t="shared" si="1"/>
         <v>"04":["Arizona",8558,6392017,1339],</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>"04":["Arizona",8558,6392017],</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="3"/>
+        <v>"04":["Arizona",8558],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>5</v>
       </c>
@@ -815,8 +881,16 @@
         <f t="shared" si="1"/>
         <v>"05":["Arkansas",400,2915918,137],</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>"05":["Arkansas",400,2915918],</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>"05":["Arkansas",400],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>6</v>
       </c>
@@ -837,8 +911,16 @@
         <f t="shared" si="1"/>
         <v>"06":["California",47223,37253956,1268],</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>"06":["California",47223,37253956],</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>"06":["California",47223],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>8</v>
       </c>
@@ -859,8 +941,16 @@
         <f t="shared" si="1"/>
         <v>"08":["Colorado",3600,5029196,716],</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>"08":["Colorado",3600,5029196],</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>"08":["Colorado",3600],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>9</v>
       </c>
@@ -881,8 +971,16 @@
         <f t="shared" si="1"/>
         <v>"09":["Connecticut",1100,3574097,308],</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>"09":["Connecticut",1100,3574097],</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>"09":["Connecticut",1100],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>10</v>
       </c>
@@ -903,8 +1001,16 @@
         <f t="shared" si="1"/>
         <v>"10":["Delaware",510,897934,568],</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>"10":["Delaware",510,897934],</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>"10":["Delaware",510],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>11</v>
       </c>
@@ -925,8 +1031,16 @@
         <f t="shared" si="1"/>
         <v>"11":["District of Columbia",810,601723,1346],</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>"11":["District of Columbia",810,601723],</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>"11":["District of Columbia",810],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>12</v>
       </c>
@@ -947,8 +1061,16 @@
         <f t="shared" si="1"/>
         <v>"12":["Florida",4000,18801310,213],</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>"12":["Florida",4000,18801310],</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>"12":["Florida",4000],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>13</v>
       </c>
@@ -969,8 +1091,16 @@
         <f t="shared" si="1"/>
         <v>"13":["Georgia",2600,9687653,268],</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>"13":["Georgia",2600,9687653],</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>"13":["Georgia",2600],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>15</v>
       </c>
@@ -991,8 +1121,16 @@
         <f t="shared" si="1"/>
         <v>"15":["Hawaii",2600,1360301,1911],</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>"15":["Hawaii",2600,1360301],</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>"15":["Hawaii",2600],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1013,8 +1151,16 @@
         <f t="shared" si="1"/>
         <v>"16":["Idaho",540,1567582,344],</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>"16":["Idaho",540,1567582],</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>"16":["Idaho",540],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1035,8 +1181,16 @@
         <f t="shared" si="1"/>
         <v>"17":["Illinois",2100,12830632,164],</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>"17":["Illinois",2100,12830632],</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>"17":["Illinois",2100],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1057,8 +1211,16 @@
         <f t="shared" si="1"/>
         <v>"18":["Indiana",1500,6483802,231],</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>"18":["Indiana",1500,6483802],</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>"18":["Indiana",1500],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1079,8 +1241,16 @@
         <f t="shared" si="1"/>
         <v>"19":["Iowa",680,3046355,223],</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>"19":["Iowa",680,3046355],</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>"19":["Iowa",680],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1101,8 +1271,16 @@
         <f t="shared" si="1"/>
         <v>"20":["Kansas",530,2853118,186],</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>"20":["Kansas",530,2853118],</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>"20":["Kansas",530],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1123,8 +1301,16 @@
         <f t="shared" si="1"/>
         <v>"21":["Kentucky",640,4339367,147],</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>"21":["Kentucky",640,4339367],</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>"21":["Kentucky",640],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1145,8 +1331,16 @@
         <f t="shared" si="1"/>
         <v>"22":["Louisiana",1400,4533372,309],</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>"22":["Louisiana",1400,4533372],</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v>"22":["Louisiana",1400],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1167,8 +1361,16 @@
         <f t="shared" si="1"/>
         <v>"23":["Maine",790,1328361,595],</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>"23":["Maine",790,1328361],</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>"23":["Maine",790],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1189,8 +1391,16 @@
         <f t="shared" si="1"/>
         <v>"24":["Maryland",2000,5773552,346],</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>"24":["Maryland",2000,5773552],</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v>"24":["Maryland",2000],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>25</v>
       </c>
@@ -1211,8 +1421,16 @@
         <f t="shared" si="1"/>
         <v>"25":["Massachusetts",6400,6547629,977],</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>"25":["Massachusetts",6400,6547629],</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v>"25":["Massachusetts",6400],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>26</v>
       </c>
@@ -1233,8 +1451,16 @@
         <f t="shared" si="1"/>
         <v>"26":["Michigan",2700,9883640,273],</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>"26":["Michigan",2700,9883640],</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="3"/>
+        <v>"26":["Michigan",2700],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1255,8 +1481,16 @@
         <f t="shared" si="1"/>
         <v>"27":["Minnesota",864,5303925,163],</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>"27":["Minnesota",864,5303925],</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v>"27":["Minnesota",864],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>28</v>
       </c>
@@ -1277,8 +1511,16 @@
         <f t="shared" si="1"/>
         <v>"28":["Mississippi",240,2967297,81],</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>"28":["Mississippi",240,2967297],</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v>"28":["Mississippi",240],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1299,8 +1541,16 @@
         <f t="shared" si="1"/>
         <v>"29":["Missouri",2800,5988927,468],</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>"29":["Missouri",2800,5988927],</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v>"29":["Missouri",2800],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>30</v>
       </c>
@@ -1321,8 +1571,16 @@
         <f t="shared" si="1"/>
         <v>"30":["Montana",540,989415,546],</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>"30":["Montana",540,989415],</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v>"30":["Montana",540],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>31</v>
       </c>
@@ -1343,8 +1601,16 @@
         <f t="shared" si="1"/>
         <v>"31":["Nebraska",280,1826341,153],</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>"31":["Nebraska",280,1826341],</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>"31":["Nebraska",280],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>32</v>
       </c>
@@ -1365,8 +1631,16 @@
         <f t="shared" si="1"/>
         <v>"32":["Nevada",2400,2700551,889],</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>"32":["Nevada",2400,2700551],</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>"32":["Nevada",2400],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1387,8 +1661,16 @@
         <f t="shared" si="1"/>
         <v>"33":["New Hampshire",860,1316470,653],</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>"33":["New Hampshire",860,1316470],</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>"33":["New Hampshire",860],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>34</v>
       </c>
@@ -1409,8 +1691,16 @@
         <f t="shared" si="1"/>
         <v>"34":["New Jersey",6500,8791894,739],</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>"34":["New Jersey",6500,8791894],</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
+        <v>"34":["New Jersey",6500],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1431,8 +1721,16 @@
         <f t="shared" si="1"/>
         <v>"35":["New Mexico",1900,2059179,923],</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>"35":["New Mexico",1900,2059179],</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="3"/>
+        <v>"35":["New Mexico",1900],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>36</v>
       </c>
@@ -1453,8 +1751,16 @@
         <f t="shared" si="1"/>
         <v>"36":["New York",5000,19378102,258],</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>"36":["New York",5000,19378102],</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="3"/>
+        <v>"36":["New York",5000],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>37</v>
       </c>
@@ -1475,8 +1781,16 @@
         <f t="shared" si="1"/>
         <v>"37":["North Carolina",3100,9535483,325],</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>"37":["North Carolina",3100,9535483],</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v>"37":["North Carolina",3100],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>38</v>
       </c>
@@ -1497,8 +1811,16 @@
         <f t="shared" si="1"/>
         <v>"38":["North Dakota",230,672591,342],</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>"38":["North Dakota",230,672591],</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="3"/>
+        <v>"38":["North Dakota",230],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>39</v>
       </c>
@@ -1519,8 +1841,16 @@
         <f t="shared" si="1"/>
         <v>"39":["Ohio",3800,11536504,329],</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>"39":["Ohio",3800,11536504],</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>"39":["Ohio",3800],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>40</v>
       </c>
@@ -1541,8 +1871,16 @@
         <f t="shared" si="1"/>
         <v>"40":["Oklahoma",630,3751351,168],</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>"40":["Oklahoma",630,3751351],</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>"40":["Oklahoma",630],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>41</v>
       </c>
@@ -1563,8 +1901,16 @@
         <f t="shared" si="1"/>
         <v>"41":["Oregon",2700,3831074,705],</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>"41":["Oregon",2700,3831074],</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v>"41":["Oregon",2700],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>42</v>
       </c>
@@ -1585,8 +1931,16 @@
         <f t="shared" si="1"/>
         <v>"42":["Pennsylvania",2900,12702379,228],</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>"42":["Pennsylvania",2900,12702379],</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>"42":["Pennsylvania",2900],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1607,8 +1961,16 @@
         <f t="shared" si="1"/>
         <v>"44":["Rhode Island",340,1052567,323],</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>"44":["Rhode Island",340,1052567],</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="3"/>
+        <v>"44":["Rhode Island",340],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1629,8 +1991,16 @@
         <f t="shared" si="1"/>
         <v>"45":["South Carolina",1000,4625364,216],</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>"45":["South Carolina",1000,4625364],</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="3"/>
+        <v>"45":["South Carolina",1000],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>46</v>
       </c>
@@ -1651,8 +2021,16 @@
         <f t="shared" si="1"/>
         <v>"46":["South Dakota",290,814180,356],</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>"46":["South Dakota",290,814180],</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v>"46":["South Dakota",290],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>47</v>
       </c>
@@ -1673,8 +2051,16 @@
         <f t="shared" si="1"/>
         <v>"47":["Tennessee",2800,6346105,441],</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>"47":["Tennessee",2800,6346105],</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="3"/>
+        <v>"47":["Tennessee",2800],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>48</v>
       </c>
@@ -1695,8 +2081,16 @@
         <f t="shared" si="1"/>
         <v>"48":["Texas",4100,25145561,163],</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>"48":["Texas",4100,25145561],</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>"48":["Texas",4100],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>49</v>
       </c>
@@ -1717,8 +2111,16 @@
         <f t="shared" si="1"/>
         <v>"49":["Utah",910,2763885,329],</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>"49":["Utah",910,2763885],</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>"49":["Utah",910],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>50</v>
       </c>
@@ -1739,8 +2141,16 @@
         <f t="shared" si="1"/>
         <v>"50":["Vermont",1300,625741,2078],</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>"50":["Vermont",1300,625741],</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>"50":["Vermont",1300],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>51</v>
       </c>
@@ -1761,8 +2171,16 @@
         <f t="shared" si="1"/>
         <v>"51":["Virginia",1900,8001024,237],</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v>"51":["Virginia",1900,8001024],</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>"51":["Virginia",1900],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>53</v>
       </c>
@@ -1783,8 +2201,16 @@
         <f t="shared" si="1"/>
         <v>"53":["Washington",2000,6724540,297],</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v>"53":["Washington",2000,6724540],</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>"53":["Washington",2000],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>54</v>
       </c>
@@ -1805,8 +2231,16 @@
         <f t="shared" si="1"/>
         <v>"54":["West Virginia",370,1852994,200],</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>"54":["West Virginia",370,1852994],</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>"54":["West Virginia",370],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>55</v>
       </c>
@@ -1827,8 +2261,16 @@
         <f t="shared" si="1"/>
         <v>"55":["Wisconsin",1800,5686986,317],</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>"55":["Wisconsin",1800,5686986],</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="3"/>
+        <v>"55":["Wisconsin",1800],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>56</v>
       </c>
@@ -1848,6 +2290,14 @@
       <c r="G52" t="str">
         <f t="shared" si="1"/>
         <v>"56":["Wyoming",340,563626,603],</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>"56":["Wyoming",340,563626],</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="3"/>
+        <v>"56":["Wyoming",340],</v>
       </c>
     </row>
   </sheetData>

--- a/landline/state code.xlsx
+++ b/landline/state code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="2660" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>State</t>
   </si>
@@ -190,15 +190,19 @@
   </si>
   <si>
     <t>Jobs per MM Cap</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -262,7 +266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -329,8 +333,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,8 +368,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="90">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -375,6 +404,18 @@
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -407,6 +448,18 @@
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,15 +789,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -763,14 +816,10 @@
       <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="J1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -788,19 +837,27 @@
         <v>87.870961910867052</v>
       </c>
       <c r="G2" t="str">
-        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;","&amp;D2&amp;","&amp;ROUND(E2,0)&amp;"],"</f>
-        <v>"01":["Alabama",420,4779736,88],</v>
-      </c>
-      <c r="J2" t="str">
-        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;","&amp;D2&amp;"],"</f>
-        <v>"01":["Alabama",420,4779736],</v>
-      </c>
-      <c r="M2" t="str">
-        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;C2&amp;"],"</f>
-        <v>"01":["Alabama",420],</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <f>""""&amp;IF(A2&lt;10,0,"")&amp;A2&amp;""":["""&amp;B2&amp;""","&amp;TEXT(C2,"0,000")&amp;","&amp;D2&amp;","&amp;ROUND(E2,0)&amp;"],"</f>
+        <v>"01":["Alabama",0,420,4779736,88],</v>
+      </c>
+      <c r="P2" s="7">
+        <v>2077.53687228422</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2077.53687228422</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <f>VLOOKUP(S2,$Q$2:$R$52,2,0)</f>
+        <v>2077.53687228422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -821,16 +878,24 @@
         <f t="shared" ref="G3:G52" si="1">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;","&amp;D3&amp;","&amp;ROUND(E3,0)&amp;"],"</f>
         <v>"02":["Alaska",50,710231,70],</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J52" si="2">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;","&amp;D3&amp;"],"</f>
-        <v>"02":["Alaska",50,710231],</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M52" si="3">""""&amp;IF(A3&lt;10,0,"")&amp;A3&amp;""":["""&amp;B3&amp;""","&amp;C3&amp;"],"</f>
-        <v>"02":["Alaska",50],</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3" s="7">
+        <v>1911.3416809956032</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1911.3416809956032</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3:T6" si="2">VLOOKUP(S3,$Q$2:$R$52,2,0)</f>
+        <v>704.76320739301832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>4</v>
       </c>
@@ -851,16 +916,24 @@
         <f t="shared" si="1"/>
         <v>"04":["Arizona",8558,6392017,1339],</v>
       </c>
-      <c r="J4" t="str">
+      <c r="P4" s="7">
+        <v>1346.1343508557925</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1346.1343508557925</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" s="7">
         <f t="shared" si="2"/>
-        <v>"04":["Arizona",8558,6392017],</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="3"/>
-        <v>"04":["Arizona",8558],</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>344.47958703276771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>5</v>
       </c>
@@ -881,16 +954,24 @@
         <f t="shared" si="1"/>
         <v>"05":["Arkansas",400,2915918,137],</v>
       </c>
-      <c r="J5" t="str">
+      <c r="P5" s="7">
+        <v>1338.8575155541671</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1338.8575155541671</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7">
         <f t="shared" si="2"/>
-        <v>"05":["Arkansas",400,2915918],</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="3"/>
-        <v>"05":["Arkansas",400],</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>273.17870743976914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>6</v>
       </c>
@@ -911,16 +992,24 @@
         <f t="shared" si="1"/>
         <v>"06":["California",47223,37253956,1268],</v>
       </c>
-      <c r="J6" t="str">
+      <c r="P6" s="7">
+        <v>1267.5969231294523</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1267.5969231294523</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="7">
         <f t="shared" si="2"/>
-        <v>"06":["California",47223,37253956],</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v>"06":["California",47223],</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>185.76168248211255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>8</v>
       </c>
@@ -941,16 +1030,17 @@
         <f t="shared" si="1"/>
         <v>"08":["Colorado",3600,5029196,716],</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v>"08":["Colorado",3600,5029196],</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="3"/>
-        <v>"08":["Colorado",3600],</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7" s="7">
+        <v>977.45305972589472</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="7">
+        <v>977.45305972589472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>9</v>
       </c>
@@ -971,16 +1061,17 @@
         <f t="shared" si="1"/>
         <v>"09":["Connecticut",1100,3574097,308],</v>
       </c>
-      <c r="J8" t="str">
-        <f t="shared" si="2"/>
-        <v>"09":["Connecticut",1100,3574097],</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="3"/>
-        <v>"09":["Connecticut",1100],</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8" s="7">
+        <v>922.69783248566534</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="7">
+        <v>922.69783248566534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1001,16 +1092,17 @@
         <f t="shared" si="1"/>
         <v>"10":["Delaware",510,897934,568],</v>
       </c>
-      <c r="J9" t="str">
-        <f t="shared" si="2"/>
-        <v>"10":["Delaware",510,897934],</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="3"/>
-        <v>"10":["Delaware",510],</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9" s="7">
+        <v>888.70752672325011</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="7">
+        <v>888.70752672325011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1031,16 +1123,17 @@
         <f t="shared" si="1"/>
         <v>"11":["District of Columbia",810,601723,1346],</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="2"/>
-        <v>"11":["District of Columbia",810,601723],</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="3"/>
-        <v>"11":["District of Columbia",810],</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10" s="7">
+        <v>739.31737575544014</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="7">
+        <v>739.31737575544014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1061,16 +1154,17 @@
         <f t="shared" si="1"/>
         <v>"12":["Florida",4000,18801310,213],</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="2"/>
-        <v>"12":["Florida",4000,18801310],</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="3"/>
-        <v>"12":["Florida",4000],</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11" s="7">
+        <v>715.82018278866042</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="7">
+        <v>715.82018278866042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1091,16 +1185,18 @@
         <f t="shared" si="1"/>
         <v>"13":["Georgia",2600,9687653,268],</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="2"/>
-        <v>"13":["Georgia",2600,9687653],</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="3"/>
-        <v>"13":["Georgia",2600],</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12" s="7">
+        <v>704.76320739301832</v>
+      </c>
+      <c r="Q12">
+        <f>Q2+1</f>
+        <v>2</v>
+      </c>
+      <c r="R12" s="7">
+        <v>704.76320739301832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1121,16 +1217,18 @@
         <f t="shared" si="1"/>
         <v>"15":["Hawaii",2600,1360301,1911],</v>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="2"/>
-        <v>"15":["Hawaii",2600,1360301],</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="3"/>
-        <v>"15":["Hawaii",2600],</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13" s="7">
+        <v>653.26213282490289</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" ref="Q13:Q52" si="3">Q3+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="7">
+        <v>653.26213282490289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1151,16 +1249,18 @@
         <f t="shared" si="1"/>
         <v>"16":["Idaho",540,1567582,344],</v>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="2"/>
-        <v>"16":["Idaho",540,1567582],</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="3"/>
-        <v>"16":["Idaho",540],</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14" s="7">
+        <v>603.23689822683832</v>
+      </c>
+      <c r="Q14" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="7">
+        <v>603.23689822683832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1181,16 +1281,18 @@
         <f t="shared" si="1"/>
         <v>"17":["Illinois",2100,12830632,164],</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="2"/>
-        <v>"17":["Illinois",2100,12830632],</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="3"/>
-        <v>"17":["Illinois",2100],</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15" s="7">
+        <v>594.71785154788495</v>
+      </c>
+      <c r="Q15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="7">
+        <v>594.71785154788495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1211,16 +1313,18 @@
         <f t="shared" si="1"/>
         <v>"18":["Indiana",1500,6483802,231],</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="2"/>
-        <v>"18":["Indiana",1500,6483802],</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="3"/>
-        <v>"18":["Indiana",1500],</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16" s="7">
+        <v>567.97047444466966</v>
+      </c>
+      <c r="Q16" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R16" s="7">
+        <v>567.97047444466966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1241,16 +1345,18 @@
         <f t="shared" si="1"/>
         <v>"19":["Iowa",680,3046355,223],</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="2"/>
-        <v>"19":["Iowa",680,3046355],</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="3"/>
-        <v>"19":["Iowa",680],</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17" s="7">
+        <v>545.77705007504437</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" s="7">
+        <v>545.77705007504437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1271,16 +1377,18 @@
         <f t="shared" si="1"/>
         <v>"20":["Kansas",530,2853118,186],</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="2"/>
-        <v>"20":["Kansas",530,2853118],</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="3"/>
-        <v>"20":["Kansas",530],</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18" s="7">
+        <v>467.52949234478899</v>
+      </c>
+      <c r="Q18" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" s="7">
+        <v>467.52949234478899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1301,16 +1409,18 @@
         <f t="shared" si="1"/>
         <v>"21":["Kentucky",640,4339367,147],</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="2"/>
-        <v>"21":["Kentucky",640,4339367],</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="3"/>
-        <v>"21":["Kentucky",640],</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" s="7">
+        <v>441.2155172345872</v>
+      </c>
+      <c r="Q19" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="7">
+        <v>441.2155172345872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1331,16 +1441,18 @@
         <f t="shared" si="1"/>
         <v>"22":["Louisiana",1400,4533372,309],</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="2"/>
-        <v>"22":["Louisiana",1400,4533372],</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="3"/>
-        <v>"22":["Louisiana",1400],</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20" s="7">
+        <v>356.18659264536097</v>
+      </c>
+      <c r="Q20" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" s="7">
+        <v>356.18659264536097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1361,16 +1473,18 @@
         <f t="shared" si="1"/>
         <v>"23":["Maine",790,1328361,595],</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="2"/>
-        <v>"23":["Maine",790,1328361],</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="3"/>
-        <v>"23":["Maine",790],</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21" s="7">
+        <v>346.40720305281741</v>
+      </c>
+      <c r="Q21" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R21" s="7">
+        <v>346.40720305281741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1391,16 +1505,18 @@
         <f t="shared" si="1"/>
         <v>"24":["Maryland",2000,5773552,346],</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="2"/>
-        <v>"24":["Maryland",2000,5773552],</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="3"/>
-        <v>"24":["Maryland",2000],</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22" s="7">
+        <v>344.47958703276771</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="7">
+        <v>344.47958703276771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>25</v>
       </c>
@@ -1421,16 +1537,18 @@
         <f t="shared" si="1"/>
         <v>"25":["Massachusetts",6400,6547629,977],</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="2"/>
-        <v>"25":["Massachusetts",6400,6547629],</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="3"/>
-        <v>"25":["Massachusetts",6400],</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23" s="7">
+        <v>341.96116213270773</v>
+      </c>
+      <c r="Q23" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="7">
+        <v>341.96116213270773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>26</v>
       </c>
@@ -1451,16 +1569,18 @@
         <f t="shared" si="1"/>
         <v>"26":["Michigan",2700,9883640,273],</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="2"/>
-        <v>"26":["Michigan",2700,9883640],</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="3"/>
-        <v>"26":["Michigan",2700],</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24" s="7">
+        <v>329.389215311675</v>
+      </c>
+      <c r="Q24" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" s="7">
+        <v>329.389215311675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1481,16 +1601,18 @@
         <f t="shared" si="1"/>
         <v>"27":["Minnesota",864,5303925,163],</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="2"/>
-        <v>"27":["Minnesota",864,5303925],</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="3"/>
-        <v>"27":["Minnesota",864],</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25" s="7">
+        <v>329.24669441745948</v>
+      </c>
+      <c r="Q25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" s="7">
+        <v>329.24669441745948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>28</v>
       </c>
@@ -1511,16 +1633,18 @@
         <f t="shared" si="1"/>
         <v>"28":["Mississippi",240,2967297,81],</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="2"/>
-        <v>"28":["Mississippi",240,2967297],</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="3"/>
-        <v>"28":["Mississippi",240],</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26" s="7">
+        <v>325.10151819262853</v>
+      </c>
+      <c r="Q26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="7">
+        <v>325.10151819262853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1541,16 +1665,18 @@
         <f t="shared" si="1"/>
         <v>"29":["Missouri",2800,5988927,468],</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="2"/>
-        <v>"29":["Missouri",2800,5988927],</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="3"/>
-        <v>"29":["Missouri",2800],</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27" s="7">
+        <v>323.01981726578924</v>
+      </c>
+      <c r="Q27" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="7">
+        <v>323.01981726578924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>30</v>
       </c>
@@ -1571,16 +1697,18 @@
         <f t="shared" si="1"/>
         <v>"30":["Montana",540,989415,546],</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="2"/>
-        <v>"30":["Montana",540,989415],</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="3"/>
-        <v>"30":["Montana",540],</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28" s="7">
+        <v>316.51212083166723</v>
+      </c>
+      <c r="Q28" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="7">
+        <v>316.51212083166723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>31</v>
       </c>
@@ -1601,16 +1729,18 @@
         <f t="shared" si="1"/>
         <v>"31":["Nebraska",280,1826341,153],</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" si="2"/>
-        <v>"31":["Nebraska",280,1826341],</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="3"/>
-        <v>"31":["Nebraska",280],</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29" s="7">
+        <v>308.82089535118672</v>
+      </c>
+      <c r="Q29" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="7">
+        <v>308.82089535118672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>32</v>
       </c>
@@ -1631,16 +1761,18 @@
         <f t="shared" si="1"/>
         <v>"32":["Nevada",2400,2700551,889],</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="2"/>
-        <v>"32":["Nevada",2400,2700551],</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="3"/>
-        <v>"32":["Nevada",2400],</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30" s="7">
+        <v>307.77004653203312</v>
+      </c>
+      <c r="Q30" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="7">
+        <v>307.77004653203312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1661,16 +1793,18 @@
         <f t="shared" si="1"/>
         <v>"33":["New Hampshire",860,1316470,653],</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="2"/>
-        <v>"33":["New Hampshire",860,1316470],</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="3"/>
-        <v>"33":["New Hampshire",860],</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31" s="7">
+        <v>297.41811335793972</v>
+      </c>
+      <c r="Q31" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="7">
+        <v>297.41811335793972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>34</v>
       </c>
@@ -1691,16 +1825,18 @@
         <f t="shared" si="1"/>
         <v>"34":["New Jersey",6500,8791894,739],</v>
       </c>
-      <c r="J32" t="str">
-        <f t="shared" si="2"/>
-        <v>"34":["New Jersey",6500,8791894],</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="3"/>
-        <v>"34":["New Jersey",6500],</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32" s="7">
+        <v>273.17870743976914</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R32" s="7">
+        <v>273.17870743976914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1721,16 +1857,18 @@
         <f t="shared" si="1"/>
         <v>"35":["New Mexico",1900,2059179,923],</v>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" si="2"/>
-        <v>"35":["New Mexico",1900,2059179],</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="3"/>
-        <v>"35":["New Mexico",1900],</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33" s="7">
+        <v>268.38285805653857</v>
+      </c>
+      <c r="Q33" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="7">
+        <v>268.38285805653857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>36</v>
       </c>
@@ -1751,16 +1889,18 @@
         <f t="shared" si="1"/>
         <v>"36":["New York",5000,19378102,258],</v>
       </c>
-      <c r="J34" t="str">
-        <f t="shared" si="2"/>
-        <v>"36":["New York",5000,19378102],</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="3"/>
-        <v>"36":["New York",5000],</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P34" s="7">
+        <v>258.02320578145373</v>
+      </c>
+      <c r="Q34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R34" s="7">
+        <v>258.02320578145373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>37</v>
       </c>
@@ -1781,16 +1921,18 @@
         <f t="shared" si="1"/>
         <v>"37":["North Carolina",3100,9535483,325],</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="2"/>
-        <v>"37":["North Carolina",3100,9535483],</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="3"/>
-        <v>"37":["North Carolina",3100],</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="P35" s="7">
+        <v>237.46960389070199</v>
+      </c>
+      <c r="Q35" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" s="7">
+        <v>237.46960389070199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>38</v>
       </c>
@@ -1811,16 +1953,18 @@
         <f t="shared" si="1"/>
         <v>"38":["North Dakota",230,672591,342],</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" si="2"/>
-        <v>"38":["North Dakota",230,672591],</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="3"/>
-        <v>"38":["North Dakota",230],</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P36" s="7">
+        <v>231.34574436418632</v>
+      </c>
+      <c r="Q36" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" s="7">
+        <v>231.34574436418632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>39</v>
       </c>
@@ -1841,16 +1985,18 @@
         <f t="shared" si="1"/>
         <v>"39":["Ohio",3800,11536504,329],</v>
       </c>
-      <c r="J37" t="str">
-        <f t="shared" si="2"/>
-        <v>"39":["Ohio",3800,11536504],</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="3"/>
-        <v>"39":["Ohio",3800],</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="P37" s="7">
+        <v>228.30369019850534</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R37" s="7">
+        <v>228.30369019850534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>40</v>
       </c>
@@ -1871,16 +2017,18 @@
         <f t="shared" si="1"/>
         <v>"40":["Oklahoma",630,3751351,168],</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" si="2"/>
-        <v>"40":["Oklahoma",630,3751351],</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="3"/>
-        <v>"40":["Oklahoma",630],</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="P38" s="7">
+        <v>223.21758298031583</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R38" s="7">
+        <v>223.21758298031583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>41</v>
       </c>
@@ -1901,16 +2049,18 @@
         <f t="shared" si="1"/>
         <v>"41":["Oregon",2700,3831074,705],</v>
       </c>
-      <c r="J39" t="str">
-        <f t="shared" si="2"/>
-        <v>"41":["Oregon",2700,3831074],</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" si="3"/>
-        <v>"41":["Oregon",2700],</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="P39" s="7">
+        <v>216.19920075479465</v>
+      </c>
+      <c r="Q39" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R39" s="7">
+        <v>216.19920075479465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>42</v>
       </c>
@@ -1931,16 +2081,18 @@
         <f t="shared" si="1"/>
         <v>"42":["Pennsylvania",2900,12702379,228],</v>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" si="2"/>
-        <v>"42":["Pennsylvania",2900,12702379],</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="3"/>
-        <v>"42":["Pennsylvania",2900],</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="P40" s="7">
+        <v>212.75113276681253</v>
+      </c>
+      <c r="Q40" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R40" s="7">
+        <v>212.75113276681253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1961,16 +2113,18 @@
         <f t="shared" si="1"/>
         <v>"44":["Rhode Island",340,1052567,323],</v>
       </c>
-      <c r="J41" t="str">
-        <f t="shared" si="2"/>
-        <v>"44":["Rhode Island",340,1052567],</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="3"/>
-        <v>"44":["Rhode Island",340],</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="P41" s="7">
+        <v>199.67684730765455</v>
+      </c>
+      <c r="Q41" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" s="7">
+        <v>199.67684730765455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1991,16 +2145,18 @@
         <f t="shared" si="1"/>
         <v>"45":["South Carolina",1000,4625364,216],</v>
       </c>
-      <c r="J42" t="str">
-        <f t="shared" si="2"/>
-        <v>"45":["South Carolina",1000,4625364],</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="3"/>
-        <v>"45":["South Carolina",1000],</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="P42" s="7">
+        <v>185.76168248211255</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R42" s="7">
+        <v>185.76168248211255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>46</v>
       </c>
@@ -2021,16 +2177,18 @@
         <f t="shared" si="1"/>
         <v>"46":["South Dakota",290,814180,356],</v>
       </c>
-      <c r="J43" t="str">
-        <f t="shared" si="2"/>
-        <v>"46":["South Dakota",290,814180],</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="3"/>
-        <v>"46":["South Dakota",290],</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="P43" s="7">
+        <v>167.93949699721514</v>
+      </c>
+      <c r="Q43" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="7">
+        <v>167.93949699721514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>47</v>
       </c>
@@ -2051,16 +2209,18 @@
         <f t="shared" si="1"/>
         <v>"47":["Tennessee",2800,6346105,441],</v>
       </c>
-      <c r="J44" t="str">
-        <f t="shared" si="2"/>
-        <v>"47":["Tennessee",2800,6346105],</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="3"/>
-        <v>"47":["Tennessee",2800],</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="P44" s="7">
+        <v>163.67081528018261</v>
+      </c>
+      <c r="Q44" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="7">
+        <v>163.67081528018261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>48</v>
       </c>
@@ -2081,16 +2241,18 @@
         <f t="shared" si="1"/>
         <v>"48":["Texas",4100,25145561,163],</v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" si="2"/>
-        <v>"48":["Texas",4100,25145561],</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="3"/>
-        <v>"48":["Texas",4100],</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="P45" s="7">
+        <v>163.05064738861861</v>
+      </c>
+      <c r="Q45" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="7">
+        <v>163.05064738861861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>49</v>
       </c>
@@ -2111,16 +2273,18 @@
         <f t="shared" si="1"/>
         <v>"49":["Utah",910,2763885,329],</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" si="2"/>
-        <v>"49":["Utah",910,2763885],</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="3"/>
-        <v>"49":["Utah",910],</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="P46" s="7">
+        <v>162.89823102702243</v>
+      </c>
+      <c r="Q46" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" s="7">
+        <v>162.89823102702243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2141,16 +2305,18 @@
         <f t="shared" si="1"/>
         <v>"50":["Vermont",1300,625741,2078],</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="2"/>
-        <v>"50":["Vermont",1300,625741],</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="3"/>
-        <v>"50":["Vermont",1300],</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="P47" s="7">
+        <v>153.31200471324905</v>
+      </c>
+      <c r="Q47" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R47" s="7">
+        <v>153.31200471324905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>51</v>
       </c>
@@ -2171,16 +2337,18 @@
         <f t="shared" si="1"/>
         <v>"51":["Virginia",1900,8001024,237],</v>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" si="2"/>
-        <v>"51":["Virginia",1900,8001024],</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="3"/>
-        <v>"51":["Virginia",1900],</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="P48" s="7">
+        <v>147.48694913336439</v>
+      </c>
+      <c r="Q48" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" s="7">
+        <v>147.48694913336439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>53</v>
       </c>
@@ -2201,16 +2369,18 @@
         <f t="shared" si="1"/>
         <v>"53":["Washington",2000,6724540,297],</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="2"/>
-        <v>"53":["Washington",2000,6724540],</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="3"/>
-        <v>"53":["Washington",2000],</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="P49" s="7">
+        <v>137.17806879342973</v>
+      </c>
+      <c r="Q49" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R49" s="7">
+        <v>137.17806879342973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>54</v>
       </c>
@@ -2231,16 +2401,18 @@
         <f t="shared" si="1"/>
         <v>"54":["West Virginia",370,1852994,200],</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="2"/>
-        <v>"54":["West Virginia",370,1852994],</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="3"/>
-        <v>"54":["West Virginia",370],</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="P50" s="7">
+        <v>87.870961910867052</v>
+      </c>
+      <c r="Q50" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R50" s="7">
+        <v>87.870961910867052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>55</v>
       </c>
@@ -2261,16 +2433,18 @@
         <f t="shared" si="1"/>
         <v>"55":["Wisconsin",1800,5686986,317],</v>
       </c>
-      <c r="J51" t="str">
-        <f t="shared" si="2"/>
-        <v>"55":["Wisconsin",1800,5686986],</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="3"/>
-        <v>"55":["Wisconsin",1800],</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="P51" s="7">
+        <v>80.881691317047128</v>
+      </c>
+      <c r="Q51" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R51" s="7">
+        <v>80.881691317047128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>56</v>
       </c>
@@ -2291,16 +2465,21 @@
         <f t="shared" si="1"/>
         <v>"56":["Wyoming",340,563626,603],</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" si="2"/>
-        <v>"56":["Wyoming",340,563626],</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="3"/>
-        <v>"56":["Wyoming",340],</v>
+      <c r="P52" s="7">
+        <v>70.399630542738919</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R52" s="7">
+        <v>70.399630542738919</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="P2:P52">
+    <sortCondition descending="1" ref="P2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
